--- a/temp/pages/StructureDefinition-ch-etoc-device.xlsx
+++ b/temp/pages/StructureDefinition-ch-etoc-device.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="333">
   <si>
     <t>Path</t>
   </si>
@@ -143,16 +143,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>CH eToc Device</t>
   </si>
   <si>
     <t>A type of a manufactured item that is used in the provision of healthcare without being substantially changed through that activity. The device may be a medical or non-medical device.</t>
-  </si>
-  <si>
-    <t>This profile applies the rules defined by HL7 International for representing the UDI in the FHIR standard, by the document "Medical Devices and Unique Device Identification (UDI) Pattern, Release 1"</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -163,6 +157,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -791,57 +788,19 @@
     <t>Device.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
-</t>
-  </si>
-  <si>
-    <t>Type of device.
-Preferably valued by using SNOMED CT.
-The absence of information, or of devices relevant for purpose of this IPS, shall be explicitly stated by using the codes included in the absent-or-unknown-devices-uv-ips value set.</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>The type of device</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/medical-devices-uv-ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>Discriminated by the bound value set</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>absentOrUnknownDevice</t>
-  </si>
-  <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>Slice to be valued in case of no information or known absence of relevant devices for the purpose of this IPS</t>
-  </si>
-  <si>
-    <t>Absent problem or unknown device</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-devices-uv-ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>The kind or type of device</t>
+  </si>
+  <si>
+    <t>The kind or type of device.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes to identify medical devices.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-type</t>
   </si>
   <si>
     <t>Device.specialization</t>
@@ -977,7 +936,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Patient-uv-ips)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -994,96 +953,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Device.patient.id</t>
-  </si>
-  <si>
-    <t>Device.patient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Device.patient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Device.patient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Device.patient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Device.patient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Device.owner</t>
@@ -1345,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL74"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1355,7 +1224,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.2890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1364,7 +1233,7 @@
     <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="162.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="127.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1377,11 +1246,11 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="40.5546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.90625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="33.40625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1510,7 +1379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>38</v>
       </c>
@@ -1526,26 +1395,24 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>39</v>
@@ -1606,7 +1473,7 @@
         <v>39</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>38</v>
@@ -1620,7 +1487,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1631,28 +1498,28 @@
         <v>40</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1702,13 +1569,13 @@
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>39</v>
@@ -1728,7 +1595,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1739,7 +1606,7 @@
         <v>40</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>39</v>
@@ -1748,16 +1615,16 @@
         <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1808,19 +1675,19 @@
         <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>39</v>
@@ -1834,7 +1701,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1845,28 +1712,28 @@
         <v>40</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1916,19 +1783,19 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>39</v>
@@ -1942,7 +1809,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1953,7 +1820,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1965,16 +1832,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2000,43 +1867,43 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>39</v>
@@ -2050,18 +1917,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>39</v>
@@ -2073,16 +1940,16 @@
         <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2132,22 +1999,22 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -2158,11 +2025,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2181,16 +2048,16 @@
         <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2240,7 +2107,7 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
@@ -2255,7 +2122,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2266,11 +2133,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2289,16 +2156,16 @@
         <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2348,7 +2215,7 @@
         <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
@@ -2360,10 +2227,10 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -2374,11 +2241,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2391,25 +2258,25 @@
         <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2458,7 +2325,7 @@
         <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -2470,10 +2337,10 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -2484,7 +2351,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2507,16 +2374,16 @@
         <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2566,7 +2433,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2578,21 +2445,21 @@
         <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2603,7 +2470,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
@@ -2615,13 +2482,13 @@
         <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2672,19 +2539,19 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>39</v>
@@ -2698,7 +2565,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2718,19 +2585,19 @@
         <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2780,7 +2647,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2792,13 +2659,13 @@
         <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>39</v>
@@ -2806,7 +2673,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2817,25 +2684,25 @@
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2886,22 +2753,22 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2912,11 +2779,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2935,16 +2802,16 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2994,7 +2861,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3006,10 +2873,10 @@
         <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -3020,11 +2887,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3037,25 +2904,25 @@
         <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -3104,7 +2971,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3116,10 +2983,10 @@
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -3130,36 +2997,36 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3210,44 +3077,44 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3259,13 +3126,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3316,33 +3183,33 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3353,7 +3220,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3365,17 +3232,17 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -3424,22 +3291,22 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3450,18 +3317,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3470,19 +3337,19 @@
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3532,65 +3399,65 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3640,33 +3507,33 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3677,7 +3544,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3689,17 +3556,17 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -3724,46 +3591,46 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3774,7 +3641,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3785,28 +3652,28 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3832,49 +3699,49 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -3882,7 +3749,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3905,13 +3772,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3938,14 +3805,14 @@
         <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3962,7 +3829,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3974,13 +3841,13 @@
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -3988,39 +3855,39 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K25" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4070,33 +3937,33 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4107,25 +3974,25 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K26" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4176,33 +4043,33 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4213,7 +4080,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
@@ -4225,13 +4092,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4282,33 +4149,33 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4319,7 +4186,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -4331,13 +4198,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4388,33 +4255,33 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4425,25 +4292,25 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4494,33 +4361,33 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4531,28 +4398,28 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4602,25 +4469,25 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4628,7 +4495,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4651,13 +4518,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4708,7 +4575,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4720,7 +4587,7 @@
         <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>39</v>
@@ -4734,7 +4601,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4745,25 +4612,25 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4814,22 +4681,22 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4840,11 +4707,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4863,16 +4730,16 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4922,7 +4789,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4934,10 +4801,10 @@
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -4948,11 +4815,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4965,25 +4832,25 @@
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -5032,7 +4899,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5044,10 +4911,10 @@
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -5058,36 +4925,36 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5138,19 +5005,19 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>39</v>
@@ -5164,7 +5031,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5172,10 +5039,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -5187,13 +5054,13 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5220,49 +5087,49 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5270,7 +5137,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5281,25 +5148,25 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5350,25 +5217,25 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5376,7 +5243,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5387,28 +5254,28 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K38" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5458,25 +5325,25 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5484,7 +5351,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5495,10 +5362,10 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -5507,17 +5374,15 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K39" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5542,61 +5407,59 @@
         <v>39</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5605,10 +5468,10 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>39</v>
@@ -5617,17 +5480,15 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>243</v>
+        <v>116</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5652,13 +5513,13 @@
         <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
@@ -5676,22 +5537,22 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5702,7 +5563,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5713,7 +5574,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5725,13 +5586,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5782,22 +5643,22 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5808,18 +5669,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5831,15 +5692,17 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -5888,22 +5751,22 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -5914,11 +5777,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5931,24 +5794,26 @@
         <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5996,7 +5861,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6008,10 +5873,10 @@
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -6022,43 +5887,39 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>39</v>
       </c>
@@ -6106,22 +5967,22 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -6132,36 +5993,36 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6212,25 +6073,25 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6238,7 +6099,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6249,7 +6110,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6261,13 +6122,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6318,25 +6179,25 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6344,7 +6205,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6355,7 +6216,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6367,13 +6228,13 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6424,22 +6285,22 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6450,18 +6311,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
@@ -6473,15 +6334,17 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6530,22 +6393,22 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6556,11 +6419,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6573,24 +6436,26 @@
         <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6638,7 +6503,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6650,10 +6515,10 @@
         <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6664,43 +6529,39 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6748,22 +6609,22 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -6774,18 +6635,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
@@ -6797,13 +6658,13 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6854,25 +6715,25 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -6880,7 +6741,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6888,28 +6749,28 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="K52" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6960,25 +6821,25 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -6986,7 +6847,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6994,10 +6855,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -7009,13 +6870,13 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7066,19 +6927,19 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>39</v>
@@ -7092,7 +6953,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7103,7 +6964,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -7115,13 +6976,13 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>122</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7172,22 +7033,22 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7198,18 +7059,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
@@ -7221,15 +7082,17 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7278,22 +7141,22 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7304,11 +7167,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7321,24 +7184,26 @@
         <v>39</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7386,7 +7251,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7398,10 +7263,10 @@
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
@@ -7412,43 +7277,39 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
       </c>
@@ -7496,22 +7357,22 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>134</v>
+        <v>280</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
@@ -7522,7 +7383,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7530,10 +7391,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7545,13 +7406,13 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7602,19 +7463,19 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>39</v>
@@ -7628,7 +7489,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7651,13 +7512,13 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7708,7 +7569,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7720,7 +7581,7 @@
         <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>39</v>
@@ -7734,7 +7595,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7745,7 +7606,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7757,16 +7618,18 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
@@ -7814,33 +7677,33 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7848,13 +7711,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>39</v>
@@ -7863,18 +7726,16 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
       </c>
@@ -7922,25 +7783,25 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>39</v>
@@ -7948,7 +7809,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7959,7 +7820,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>39</v>
@@ -7971,15 +7832,17 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>49</v>
+        <v>304</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
@@ -8028,25 +7891,25 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8054,18 +7917,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>39</v>
@@ -8077,18 +7940,18 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>94</v>
+        <v>311</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
       </c>
@@ -8124,45 +7987,45 @@
         <v>39</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8170,31 +8033,31 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8244,25 +8107,25 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8270,7 +8133,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8281,7 +8144,7 @@
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>39</v>
@@ -8290,20 +8153,18 @@
         <v>39</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8328,13 +8189,13 @@
         <v>39</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>39</v>
@@ -8352,22 +8213,22 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
@@ -8389,7 +8250,7 @@
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>39</v>
@@ -8398,10 +8259,10 @@
         <v>39</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>327</v>
@@ -8409,9 +8270,7 @@
       <c r="L66" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8460,22 +8319,22 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
@@ -8486,7 +8345,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8497,7 +8356,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>39</v>
@@ -8506,20 +8365,18 @@
         <v>39</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>39</v>
@@ -8568,780 +8425,32 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL74" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL74">
+  <autoFilter ref="A1:AL67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9351,7 +8460,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
